--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Side_Projects\TimeTableBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A53984DB-8782-4CDD-97EC-4806B7F661FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EE9CE8-B9A7-4546-A4B8-39429A0CA69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6DA0D74-3629-46E5-9D8D-82ECD94FA4ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t xml:space="preserve">DAY </t>
   </si>
@@ -100,120 +100,112 @@
     <t>MONDAY</t>
   </si>
   <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>WEDNESDAY</t>
+  </si>
+  <si>
+    <t>Minor/Sports</t>
+  </si>
+  <si>
+    <t>OE/
+LP(T)</t>
+  </si>
+  <si>
+    <t>THURSDAY</t>
+  </si>
+  <si>
+    <t>BEFA</t>
+  </si>
+  <si>
+    <t>FRIDAY</t>
+  </si>
+  <si>
+    <t>BDAP Lab
+(105 CB)</t>
+  </si>
+  <si>
+    <t>SATURDAY</t>
+  </si>
+  <si>
+    <t>Minor Lab/Library</t>
+  </si>
+  <si>
+    <t>VP  Lab
+(New Cellar Lab)</t>
+  </si>
+  <si>
+    <t>Minor/
+Library</t>
+  </si>
+  <si>
+    <t>PE-IV
+IOE - 306 CB
+DWDM - 205 CM</t>
+  </si>
+  <si>
     <t>PE-III
-BCT - 303 CB
-CS - 305 CB
-NoSQL - 306 CB</t>
-  </si>
-  <si>
-    <r>
-      <t>Project Work
-305 CB
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ms.G.Malleswari)</t>
-    </r>
+BCT - 306 CB
+CS - 304 CB
+NoSQL - 101 CM</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>PE-III
+BCT - 306 CB
+CS - 304 CB
+NoSQL - 305 CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Work
+306 CB
+(Ms.M.Sunitha)
+</t>
+  </si>
+  <si>
+    <t>OE/
+Mentoring
+306 CB</t>
   </si>
   <si>
     <t>Minor/
 PE-III(T)
-BCT - 303 CB
-CS - 305 CB
-NoSQL - 306 CB</t>
-  </si>
-  <si>
-    <t>PE-IV
-IOE - 305 CB
-DWDM - 205 CM</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>TUESDAY</t>
-  </si>
-  <si>
-    <t>VP  Lab
-(Old Cellar Lab)</t>
-  </si>
-  <si>
-    <t>OE/
-Mentoring
-305 CB</t>
-  </si>
-  <si>
-    <t>PE-III
-BCT - 303 CB
-CS - 305 CB
-NoSQL - 102 CM</t>
-  </si>
-  <si>
-    <t>WEDNESDAY</t>
+BCT - 306 CB
+CS - 304 CB
+NoSQL - 101 CM</t>
   </si>
   <si>
     <t xml:space="preserve">Project Work
-305 CB
-(Dr.A.Soujanya)
+306 CB
+(Ms.K.Kasturi)
 </t>
   </si>
   <si>
-    <t>Minor/Sports</t>
-  </si>
-  <si>
-    <t>OE/
-LP(T)</t>
-  </si>
-  <si>
-    <t>THURSDAY</t>
-  </si>
-  <si>
-    <t>BEFA</t>
-  </si>
-  <si>
-    <t>Projects
-305 CB
-(Mr.P.Shanker)</t>
-  </si>
-  <si>
-    <t>FRIDAY</t>
-  </si>
-  <si>
-    <t>BDAP Lab
-(105 CB)</t>
+    <t xml:space="preserve">Project Work
+306 CB
+(Ms.K.Maanasa)
+</t>
   </si>
   <si>
     <t>OE/
 PE-IV(T)
-IOE - 305 CB
+IOE - 306 CB
 DWDM - 206 CM</t>
   </si>
   <si>
-    <t>Minor/Library</t>
-  </si>
-  <si>
-    <t>SATURDAY</t>
-  </si>
-  <si>
     <t>Minor Lab/Projects
-305 CB
-(Mr.P.Niranjan kumar)</t>
-  </si>
-  <si>
-    <t>Minor Lab/Library</t>
+306 CB
+(Ms.G.Deepika)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,12 +217,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -359,34 +345,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -396,21 +385,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -731,7 +705,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,213 +714,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>22</v>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="14" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
+      <c r="B7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D2:D8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Side_Projects\TimeTableBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EE9CE8-B9A7-4546-A4B8-39429A0CA69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786A092D-5471-4A75-B545-F8F9D712FB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6DA0D74-3629-46E5-9D8D-82ECD94FA4ED}"/>
   </bookViews>
@@ -190,22 +190,22 @@
 </t>
   </si>
   <si>
-    <t>OE/
-PE-IV(T)
-IOE - 306 CB
-DWDM - 206 CM</t>
-  </si>
-  <si>
     <t>Minor Lab/Projects
 306 CB
 (Ms.G.Deepika)</t>
+  </si>
+  <si>
+    <t>OE/
+PE-IV(T)
+IOE - 301 MB
+DWDM - 206 CM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +238,13 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -345,7 +352,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -373,6 +380,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -705,7 +718,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,7 +727,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -743,14 +756,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -777,7 +790,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="12"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
@@ -802,7 +815,7 @@
       <c r="C4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
@@ -825,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
@@ -833,8 +846,8 @@
         <v>36</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="7" t="s">
-        <v>18</v>
+      <c r="H5" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>21</v>
@@ -844,13 +857,13 @@
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
+      <c r="B6" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="7" t="s">
         <v>37</v>
       </c>
@@ -861,8 +874,8 @@
       <c r="H6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>23</v>
+      <c r="I6" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
@@ -875,7 +888,7 @@
       <c r="C7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="7" t="s">
         <v>38</v>
       </c>
@@ -884,7 +897,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>20</v>
@@ -894,22 +907,22 @@
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>27</v>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Side_Projects\TimeTableBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786A092D-5471-4A75-B545-F8F9D712FB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EFA687-08D9-4A7B-BDBD-82FE00DDB973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6DA0D74-3629-46E5-9D8D-82ECD94FA4ED}"/>
   </bookViews>
@@ -718,7 +718,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Side_Projects\TimeTableBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EFA687-08D9-4A7B-BDBD-82FE00DDB973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D15B6A-AB35-4042-9356-FC35C9A983E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6DA0D74-3629-46E5-9D8D-82ECD94FA4ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t xml:space="preserve">DAY </t>
   </si>
@@ -100,112 +100,197 @@
     <t>MONDAY</t>
   </si>
   <si>
-    <t>LP</t>
-  </si>
-  <si>
     <t>WEDNESDAY</t>
   </si>
   <si>
-    <t>Minor/Sports</t>
-  </si>
-  <si>
-    <t>OE/
-LP(T)</t>
-  </si>
-  <si>
     <t>THURSDAY</t>
   </si>
   <si>
-    <t>BEFA</t>
-  </si>
-  <si>
     <t>FRIDAY</t>
   </si>
   <si>
-    <t>BDAP Lab
-(105 CB)</t>
-  </si>
-  <si>
     <t>SATURDAY</t>
-  </si>
-  <si>
-    <t>Minor Lab/Library</t>
-  </si>
-  <si>
-    <t>VP  Lab
-(New Cellar Lab)</t>
   </si>
   <si>
     <t>Minor/
 Library</t>
   </si>
   <si>
+    <t>LP
+(211 CB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEFA
+(211 CB)
+</t>
+  </si>
+  <si>
     <t>PE-IV
-IOE - 306 CB
+IOE - 303 CB
 DWDM - 205 CM</t>
   </si>
   <si>
     <t>PE-III
-BCT - 306 CB
+BCT - 306 CB, 211 CB
+CS - 303 CB
+NoSQL - 101 CM</t>
+  </si>
+  <si>
+    <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>PE-III
+BCT - 306 CB, 211 CB
 CS - 304 CB
+NoSQL - 321 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Work
+(Ms.M. Nagamani)
+(302 CB)
+</t>
+  </si>
+  <si>
+    <t>OE/
+Project Work
+(Ms.M. Nagamani)
+(302 CB)</t>
+  </si>
+  <si>
+    <t>CRT/BEFA(T)
+(101CM)</t>
+  </si>
+  <si>
+    <t>CRT/PE-IV(T)
+IOE - 101 CM
+DWDM - 205 CM</t>
+  </si>
+  <si>
+    <t>VP Lab
+(New Cellar)</t>
+  </si>
+  <si>
+    <t>VP Lab
+(New Cellar)    (Mr. Sanchith Sai)</t>
+  </si>
+  <si>
+    <t>Minor/
+PE-III(T)
+BCT - 306 CB, 211 CB
+CS - 325 CM
 NoSQL - 101 CM</t>
   </si>
   <si>
-    <t>Tuesday</t>
+    <t>CRT/Mentoring
+(101CM)</t>
+  </si>
+  <si>
+    <t>CRT/LP(T)
+(101CM)</t>
+  </si>
+  <si>
+    <t>BDAP Lab
+(105  CB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDAP Lab
+(105CB)
+</t>
+  </si>
+  <si>
+    <t>OE/
+Library</t>
+  </si>
+  <si>
+    <t>CRT/Project Work
+(Ms. Shaik Farhana)
+(302CB)</t>
   </si>
   <si>
     <t>PE-III
-BCT - 306 CB
+BCT - 306 CB, 211 CB
 CS - 304 CB
 NoSQL - 305 CB</t>
   </si>
   <si>
-    <t xml:space="preserve">Project Work
-306 CB
-(Ms.M.Sunitha)
+    <r>
+      <t>BEFA
+304CB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>OE/
-Mentoring
-306 CB</t>
-  </si>
-  <si>
-    <t>Minor/
-PE-III(T)
-BCT - 306 CB
-CS - 304 CB
-NoSQL - 101 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Work
-306 CB
-(Ms.K.Kasturi)
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LP
+(304CB)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Work
-306 CB
-(Ms.K.Maanasa)
+    </r>
+  </si>
+  <si>
+    <t>Minor/Mentoring
+(101CM)</t>
+  </si>
+  <si>
+    <t>CRT/Project Work
+(Mr. Guruvaiah)
+(101CM)</t>
+  </si>
+  <si>
+    <t>BEFA
+(325 CM)</t>
+  </si>
+  <si>
+    <t>PE-IV
+IOE - 325CM
+DWDM - 205 CM</t>
+  </si>
+  <si>
+    <t>OE/LP(T)
+(303 CB)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minor Lab/Projects
+(101 CM)
 </t>
-  </si>
-  <si>
-    <t>Minor Lab/Projects
-306 CB
-(Ms.G.Deepika)</t>
-  </si>
-  <si>
-    <t>OE/
-PE-IV(T)
-IOE - 301 MB
-DWDM - 206 CM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Mr.G.Yedukondalu)</t>
+    </r>
+  </si>
+  <si>
+    <t>Minor Lab/Sports</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,25 +324,29 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
+      <color indexed="8"/>
+      <name val="Cambria"/>
       <family val="1"/>
-      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -352,52 +441,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -715,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54EFF60-96E4-412C-8C65-AA4446893FFD}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,215 +810,221 @@
     <col min="1" max="1" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="7" t="s">
+      <c r="F4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="I4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="5" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="B6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
+  <mergeCells count="7">
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D2:D8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Side_Projects\TimeTableBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D15B6A-AB35-4042-9356-FC35C9A983E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C330B49-A1BB-45E6-B34D-2D08475ACD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6DA0D74-3629-46E5-9D8D-82ECD94FA4ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t xml:space="preserve">DAY </t>
   </si>
@@ -112,185 +112,116 @@
     <t>SATURDAY</t>
   </si>
   <si>
-    <t>Minor/
-Library</t>
-  </si>
-  <si>
-    <t>LP
-(211 CB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEFA
-(211 CB)
-</t>
+    <t>Minor Lab/Sports</t>
+  </si>
+  <si>
+    <t>VP  Lab
+(New Cellar Lab)</t>
+  </si>
+  <si>
+    <t>Minor/BEFA(T)(325 CM)</t>
   </si>
   <si>
     <t>PE-IV
-IOE - 303 CB
+IOE - 306 CB
 DWDM - 205 CM</t>
   </si>
   <si>
     <t>PE-III
-BCT - 306 CB, 211 CB
+BCT - 306 CB
 CS - 303 CB
 NoSQL - 101 CM</t>
   </si>
   <si>
-    <t>TUESDAY</t>
+    <t>Tuesday</t>
   </si>
   <si>
     <t>PE-III
-BCT - 306 CB, 211 CB
+BCT - 306 CB
 CS - 304 CB
 NoSQL - 321 CM</t>
   </si>
   <si>
-    <t xml:space="preserve">Project Work
-(Ms.M. Nagamani)
-(302 CB)
+    <t xml:space="preserve">BEFA
 </t>
   </si>
   <si>
     <t>OE/
-Project Work
-(Ms.M. Nagamani)
-(302 CB)</t>
-  </si>
-  <si>
-    <t>CRT/BEFA(T)
-(101CM)</t>
+Mentoring
+(306 CB)</t>
+  </si>
+  <si>
+    <t>CRT/LP(T)</t>
   </si>
   <si>
     <t>CRT/PE-IV(T)
-IOE - 101 CM
+IOE - 306 CB
 DWDM - 205 CM</t>
   </si>
   <si>
-    <t>VP Lab
-(New Cellar)</t>
-  </si>
-  <si>
-    <t>VP Lab
-(New Cellar)    (Mr. Sanchith Sai)</t>
+    <t>BDAP Lab
+(105 CB)</t>
   </si>
   <si>
     <t>Minor/
 PE-III(T)
-BCT - 306 CB, 211 CB
+BCT - 306 CB
 CS - 325 CM
 NoSQL - 101 CM</t>
   </si>
   <si>
-    <t>CRT/Mentoring
-(101CM)</t>
-  </si>
-  <si>
-    <t>CRT/LP(T)
-(101CM)</t>
-  </si>
-  <si>
-    <t>BDAP Lab
-(105  CB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDAP Lab
-(105CB)
+    <t>CRT/Project Work
+(Ms. S. Kasturi)
+(306CB)</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Work
+(306 CB)
+( Mr. D. Ganesh)
 </t>
   </si>
   <si>
-    <t>OE/
-Library</t>
-  </si>
-  <si>
-    <t>CRT/Project Work
-(Ms. Shaik Farhana)
-(302CB)</t>
+    <t xml:space="preserve">OE/ Project Work
+(306 CB)
+( Mr. D. Ganesh)
+</t>
+  </si>
+  <si>
+    <t>CRT/Library</t>
   </si>
   <si>
     <t>PE-III
-BCT - 306 CB, 211 CB
+BCT - 306 CB
 CS - 304 CB
 NoSQL - 305 CB</t>
   </si>
   <si>
-    <r>
-      <t>BEFA
-304CB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>Minor/Library</t>
+  </si>
+  <si>
+    <t>CRT/Project Work
+(Ms. M. BhagyLakshmi)
+306CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OE/ Mentoring
+(306 CB)
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LP
-(304CB)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Minor/Mentoring
-(101CM)</t>
-  </si>
-  <si>
-    <t>CRT/Project Work
-(Mr. Guruvaiah)
-(101CM)</t>
-  </si>
-  <si>
-    <t>BEFA
-(325 CM)</t>
-  </si>
-  <si>
-    <t>PE-IV
-IOE - 325CM
-DWDM - 205 CM</t>
-  </si>
-  <si>
-    <t>OE/LP(T)
-(303 CB)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Minor Lab/Projects
-(101 CM)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Mr.G.Yedukondalu)</t>
-    </r>
-  </si>
-  <si>
-    <t>Minor Lab/Sports</t>
+  </si>
+  <si>
+    <t>Minor Lab/Projects
+(306 CB)
+(Ms.G.Deepika)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,25 +259,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -441,47 +366,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -801,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54EFF60-96E4-412C-8C65-AA4446893FFD}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,220 +747,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="5"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="10" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="5"/>
+      <c r="B8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D2:D8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
